--- a/개발일정관리.xlsx
+++ b/개발일정관리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinho\OneDrive\문서\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_source\core-\core-\core-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A0FEBE-2A1B-4CBC-9769-BC3140C4EE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98C35A-35A3-41F2-90AD-F637AA11FCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="50">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Main</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Product List</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -195,14 +191,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>결제, 매출현황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Main
+(admin)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색, 페이징, 구매(결제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출현황구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main
+(guest)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소, 반품
+(시간이 되면 추가 구현 예정)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7일 오류로인해 다시 작성중입니다(유효성검사 오류)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종수정 7/7 23:21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -254,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -314,93 +337,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,6 +365,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,45 +402,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J144"/>
+  <dimension ref="A2:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -781,51 +706,54 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
@@ -834,20 +762,20 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>31</v>
+      <c r="B5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="4">
         <v>44748</v>
@@ -856,7 +784,7 @@
         <v>44749</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -864,16 +792,16 @@
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="4">
         <v>44748</v>
@@ -882,7 +810,7 @@
         <v>44749</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -890,20 +818,20 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>34</v>
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="4">
         <v>44748</v>
@@ -912,24 +840,26 @@
         <v>44749</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="4">
         <v>44748</v>
@@ -938,24 +868,26 @@
         <v>44749</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="4">
         <v>44748</v>
@@ -964,24 +896,26 @@
         <v>44749</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="4">
         <v>44748</v>
@@ -990,24 +924,26 @@
         <v>44749</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="4">
         <v>44748</v>
@@ -1016,24 +952,26 @@
         <v>44749</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="4">
         <v>44748</v>
@@ -1042,18 +980,20 @@
         <v>44749</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1063,16 +1003,16 @@
         <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="4">
         <v>44749</v>
       </c>
       <c r="H13" s="4">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -1080,8 +1020,8 @@
       <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1089,16 +1029,16 @@
         <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="4">
         <v>44749</v>
       </c>
       <c r="H14" s="4">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J14" s="3"/>
     </row>
@@ -1106,8 +1046,8 @@
       <c r="A15" s="6">
         <v>3</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1115,16 +1055,16 @@
         <v>17</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="4">
         <v>44749</v>
       </c>
       <c r="H15" s="4">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J15" s="3"/>
     </row>
@@ -1132,8 +1072,8 @@
       <c r="A16" s="6">
         <v>4</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1141,16 +1081,16 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="4">
         <v>44749</v>
       </c>
       <c r="H16" s="4">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J16" s="3"/>
     </row>
@@ -1158,8 +1098,8 @@
       <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1167,23 +1107,23 @@
         <v>21</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" s="4">
         <v>44749</v>
       </c>
       <c r="H17" s="4">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1191,16 +1131,16 @@
         <v>23</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="4">
         <v>44749</v>
       </c>
       <c r="H18" s="4">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J18" s="3"/>
     </row>
@@ -1208,25 +1148,25 @@
       <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>41</v>
+      <c r="E19" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
       <c r="I19" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -1234,19 +1174,19 @@
       <c r="A20" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
       <c r="I20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J20" s="3"/>
     </row>
@@ -1254,19 +1194,19 @@
       <c r="A21" s="6">
         <v>8</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
       <c r="I21" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J21" s="3"/>
     </row>
@@ -1274,19 +1214,19 @@
       <c r="A22" s="6">
         <v>9</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="3"/>
       <c r="I22" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J22" s="3"/>
     </row>
@@ -1294,19 +1234,19 @@
       <c r="A23" s="6">
         <v>10</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="I23" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J23" s="3"/>
     </row>
@@ -1314,21 +1254,21 @@
       <c r="A24" s="6">
         <v>12</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
-        <v>28</v>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
       <c r="I24" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J24" s="3"/>
     </row>
@@ -1336,19 +1276,19 @@
       <c r="A25" s="6">
         <v>13</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J25" s="3"/>
     </row>
@@ -1356,19 +1296,19 @@
       <c r="A26" s="6">
         <v>14</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J26" s="3"/>
     </row>
@@ -1376,19 +1316,19 @@
       <c r="A27" s="6">
         <v>15</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="24"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -1396,463 +1336,649 @@
       <c r="A28" s="6">
         <v>16</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>6</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>17</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
       <c r="F29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="3"/>
       <c r="I29" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <v>18</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
+      <c r="A30" s="7">
+        <v>7</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="11"/>
       <c r="F30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G30" s="4"/>
       <c r="H30" s="3"/>
       <c r="I30" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>19</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
+      <c r="A31" s="7">
+        <v>8</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="11"/>
       <c r="F31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G31" s="4"/>
       <c r="H31" s="3"/>
       <c r="I31" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>20</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
+      <c r="A32" s="7">
+        <v>9</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="11"/>
       <c r="F32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="3"/>
       <c r="I32" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>21</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="7">
+        <v>10</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="4"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
-        <v>22</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="A34" s="7">
+        <v>12</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>23</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="A35" s="7">
+        <v>13</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
-        <v>24</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="A36" s="7">
+        <v>14</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
-        <v>25</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="A37" s="7">
+        <v>15</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <v>26</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="A38" s="7">
+        <v>16</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="7">
+        <v>6</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>7</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>8</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>9</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>10</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>12</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>28</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
-        <v>29</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>30</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>31</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>32</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="4"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="I44" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>33</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="A45" s="7">
+        <v>13</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
-        <v>34</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="A46" s="7">
+        <v>14</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="I46" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <v>35</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="A47" s="7">
+        <v>15</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
-        <v>36</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="A48" s="7">
+        <v>16</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="I48" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>37</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="A49" s="7">
+        <v>6</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="4"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
-        <v>38</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="A50" s="7">
+        <v>7</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="4"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
-        <v>39</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="A51" s="7">
+        <v>8</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="4"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
-        <v>40</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="A52" s="7">
+        <v>9</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="4"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="I52" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
-        <v>41</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="A53" s="7">
+        <v>10</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="4"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="I53" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
-        <v>42</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="A54" s="7">
+        <v>12</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="4"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="I54" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
-        <v>43</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="A55" s="7">
+        <v>13</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
-        <v>44</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="A56" s="7">
+        <v>14</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="I56" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
-        <v>45</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="A57" s="7">
+        <v>15</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
-        <v>46</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="A58" s="7">
+        <v>16</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="I58" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1866,7 +1992,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1880,7 +2006,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1894,7 +2020,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1908,7 +2034,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1922,7 +2048,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1936,7 +2062,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1950,7 +2076,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1964,7 +2090,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1978,7 +2104,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1992,7 +2118,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2006,7 +2132,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2020,7 +2146,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2034,7 +2160,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2048,7 +2174,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2062,7 +2188,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2076,7 +2202,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2090,7 +2216,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2104,7 +2230,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2118,7 +2244,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2132,7 +2258,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2146,7 +2272,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2160,7 +2286,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2174,7 +2300,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2188,7 +2314,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2202,7 +2328,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2216,7 +2342,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2230,7 +2356,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2244,7 +2370,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2258,7 +2384,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2272,7 +2398,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2286,7 +2412,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2300,7 +2426,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2314,7 +2440,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2328,7 +2454,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2342,7 +2468,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2356,7 +2482,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2370,7 +2496,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2384,7 +2510,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2398,7 +2524,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2412,7 +2538,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2426,7 +2552,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2440,7 +2566,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2454,7 +2580,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2468,7 +2594,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2482,7 +2608,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2496,7 +2622,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2510,7 +2636,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2524,7 +2650,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2538,7 +2664,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2552,7 +2678,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2566,7 +2692,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2580,7 +2706,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2594,7 +2720,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2608,7 +2734,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2622,7 +2748,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2636,7 +2762,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2650,7 +2776,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2664,7 +2790,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2678,7 +2804,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2692,7 +2818,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2706,7 +2832,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2720,7 +2846,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2734,7 +2860,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2748,7 +2874,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2762,7 +2888,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2776,7 +2902,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2790,7 +2916,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2804,7 +2930,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2818,7 +2944,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2832,7 +2958,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2846,7 +2972,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2860,7 +2986,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2874,7 +3000,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2888,7 +3014,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2902,7 +3028,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2916,7 +3042,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2930,7 +3056,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2944,7 +3070,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2958,7 +3084,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2972,7 +3098,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2986,7 +3112,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3000,7 +3126,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3014,7 +3140,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3028,7 +3154,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3042,7 +3168,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3054,10 +3180,377 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
     </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="6">
+        <v>107</v>
+      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="6">
+        <v>108</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="6">
+        <v>109</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="6">
+        <v>110</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="6">
+        <v>111</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="6">
+        <v>112</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="6">
+        <v>113</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="6">
+        <v>114</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="6">
+        <v>115</v>
+      </c>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="6">
+        <v>116</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="6">
+        <v>117</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="6">
+        <v>118</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="6">
+        <v>119</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="6">
+        <v>120</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="6">
+        <v>121</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="6">
+        <v>122</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="6">
+        <v>123</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="6">
+        <v>124</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="6">
+        <v>125</v>
+      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="6">
+        <v>126</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="6">
+        <v>127</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="6">
+        <v>128</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="6">
+        <v>129</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="6">
+        <v>130</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="6">
+        <v>131</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="6">
+        <v>132</v>
+      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="30">
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="E29:E38"/>
+    <mergeCell ref="C34:C38"/>
     <mergeCell ref="E19:E28"/>
-    <mergeCell ref="B29:E32"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="B19:B28"/>
@@ -3075,10 +3568,18 @@
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="E39:E48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="E49:E58"/>
+    <mergeCell ref="C54:C58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I32" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I58" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y, N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/개발일정관리.xlsx
+++ b/개발일정관리.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_source\core-\core-\core-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98C35A-35A3-41F2-90AD-F637AA11FCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17356C39-7605-469C-86D6-4E22FB8FB4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="51">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -225,6 +225,10 @@
   </si>
   <si>
     <t>최종수정 7/7 23:21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주말에 react역어본다고 까불다가 오류났습니다 오늘까지 해보고 안되면 이클립스 다시 설치하겠습니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,8 +393,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,14 +411,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,6 +432,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4543908</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DE9342-3B7E-037B-5BD1-09D114A2A141}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="3143250"/>
+          <a:ext cx="3458058" cy="1686160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,7 +749,7 @@
   <dimension ref="A2:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -713,47 +775,47 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
@@ -762,10 +824,10 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -792,8 +854,8 @@
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -840,7 +902,7 @@
         <v>44749</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>48</v>
@@ -868,7 +930,7 @@
         <v>44749</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>48</v>
@@ -896,7 +958,7 @@
         <v>44749</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>48</v>
@@ -924,7 +986,7 @@
         <v>44749</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>48</v>
@@ -952,7 +1014,7 @@
         <v>44749</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>48</v>
@@ -980,7 +1042,7 @@
         <v>44749</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>48</v>
@@ -990,10 +1052,10 @@
       <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1012,7 +1074,7 @@
         <v>44750</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -1020,8 +1082,8 @@
       <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1034,20 +1096,22 @@
       <c r="G14" s="4">
         <v>44749</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="20">
         <v>44750</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>3</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1060,20 +1124,22 @@
       <c r="G15" s="4">
         <v>44749</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="20">
         <v>44750</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>4</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1086,20 +1152,22 @@
       <c r="G16" s="4">
         <v>44749</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="20">
         <v>44750</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1112,18 +1180,20 @@
       <c r="G17" s="4">
         <v>44749</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="20">
         <v>44750</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1136,13 +1206,15 @@
       <c r="G18" s="4">
         <v>44749</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="20">
         <v>44750</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
@@ -1781,7 +1853,7 @@
       <c r="D49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -3546,28 +3618,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="E29:E38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="E19:E28"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B39:B48"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="E39:E48"/>
@@ -3576,6 +3626,28 @@
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="E49:E58"/>
     <mergeCell ref="C54:C58"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="E29:E38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="E19:E28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -3584,5 +3656,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>